--- a/Data/Don_hang_6thang.xlsx
+++ b/Data/Don_hang_6thang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
   <si>
     <t>Số hóa đơn</t>
   </si>
@@ -212,199 +212,10 @@
     <t>+1-420-066-6943</t>
   </si>
   <si>
-    <t>INV497566</t>
-  </si>
-  <si>
-    <t>Kelly Webster</t>
-  </si>
-  <si>
-    <t>82 Morgan Causeway Port Robert</t>
-  </si>
-  <si>
-    <t>6221461969</t>
-  </si>
-  <si>
-    <t>thomasjamie@gmail.com</t>
-  </si>
-  <si>
-    <t>Gấu bông Shiba đầu to mềm mại ấm áp</t>
-  </si>
-  <si>
-    <t>INV737747</t>
-  </si>
-  <si>
-    <t>James Gonzalez</t>
-  </si>
-  <si>
-    <t>89 Snyder Throughway Jasminhaven</t>
-  </si>
-  <si>
-    <t>001-350-937-6444</t>
-  </si>
-  <si>
-    <t>mgonzalez@james-hawkins.com</t>
-  </si>
-  <si>
-    <t>Sanrio loan bảy màu</t>
-  </si>
-  <si>
-    <t>INV306971</t>
-  </si>
-  <si>
-    <t>John Palmer</t>
-  </si>
-  <si>
-    <t>109 Brian Greens South Deniseview</t>
-  </si>
-  <si>
-    <t>647-164-9739x64819</t>
-  </si>
-  <si>
-    <t>briana42@hotmail.com</t>
-  </si>
-  <si>
-    <t>[BST Fashion Is In The Air] Pengentle</t>
-  </si>
-  <si>
-    <t>INV444884</t>
-  </si>
-  <si>
-    <t>Mario Warner Jr.</t>
-  </si>
-  <si>
-    <t>311 Stone Lock Sanchezstad</t>
-  </si>
-  <si>
-    <t>647-164-9739x64820</t>
-  </si>
-  <si>
     <t>trangvth22411@st.uel.edu.vn</t>
   </si>
   <si>
-    <t>INV131452</t>
-  </si>
-  <si>
-    <t>Casey Archer</t>
-  </si>
-  <si>
-    <t>22 Sloan Plain Lake Austinfort</t>
-  </si>
-  <si>
-    <t>216.436.1171x75987</t>
-  </si>
-  <si>
-    <t>bridgetwilson@yahoo.com</t>
-  </si>
-  <si>
-    <t>Gấu bông Doraemon chu mỏ đáng yêu hot trend</t>
-  </si>
-  <si>
-    <t>INV324233</t>
-  </si>
-  <si>
-    <t>Stephen Smith</t>
-  </si>
-  <si>
-    <t>934 Robert Views South Linda</t>
-  </si>
-  <si>
-    <t>+1-276-108-0919x7460</t>
-  </si>
-  <si>
-    <t>lannqh22411@st.uel.edu.vn</t>
-  </si>
-  <si>
     <t>Gấu bông Kuromi</t>
-  </si>
-  <si>
-    <t>INV338646</t>
-  </si>
-  <si>
-    <t>Steven Chandler</t>
-  </si>
-  <si>
-    <t>884 Tyler Crescent Nicolefort</t>
-  </si>
-  <si>
-    <t>519-511-8016</t>
-  </si>
-  <si>
-    <t>robinsimpson@conner-miller.com</t>
-  </si>
-  <si>
-    <t>Gấu bông mèo hoàng thượng</t>
-  </si>
-  <si>
-    <t>INV847631</t>
-  </si>
-  <si>
-    <t>Daniel Proctor</t>
-  </si>
-  <si>
-    <t>779 Matthew Junction Jenniferfurt</t>
-  </si>
-  <si>
-    <t>036.960.3772x890</t>
-  </si>
-  <si>
-    <t>hieuntm22411@st.uel.edu.vn</t>
-  </si>
-  <si>
-    <t>Gấu bông Doraemon xanh lá</t>
-  </si>
-  <si>
-    <t>INV958522</t>
-  </si>
-  <si>
-    <t>Brittany Reed</t>
-  </si>
-  <si>
-    <t>563 Winters Court Thomasmouth</t>
-  </si>
-  <si>
-    <t>(411)241-5741x795</t>
-  </si>
-  <si>
-    <t>amy68@weeks.com</t>
-  </si>
-  <si>
-    <t>Gấu bông mèo Hello Kitty</t>
-  </si>
-  <si>
-    <t>INV994615</t>
-  </si>
-  <si>
-    <t>Craig Horn</t>
-  </si>
-  <si>
-    <t>975 Patrick Springs South Kevinmouth</t>
-  </si>
-  <si>
-    <t>001-821-474-5457x68973</t>
-  </si>
-  <si>
-    <t>lisamiller@mckinney.biz</t>
-  </si>
-  <si>
-    <t>Gấu bông Kuromi hắc hóa</t>
-  </si>
-  <si>
-    <t>INV531963</t>
-  </si>
-  <si>
-    <t>Nguyễn Quốc Khải</t>
-  </si>
-  <si>
-    <t>471 Jordan Manor East Christopherchester</t>
-  </si>
-  <si>
-    <t>100-771-6718x53233</t>
-  </si>
-  <si>
-    <t>472 Jordan Manor East Christopherchester</t>
-  </si>
-  <si>
-    <t>473 Jordan Manor East Christopherchester</t>
   </si>
   <si>
     <t>INV356118</t>
@@ -422,106 +233,7 @@
     <t>stacy25@bates.com</t>
   </si>
   <si>
-    <t>INV423146</t>
-  </si>
-  <si>
-    <t>Cynthia Webb</t>
-  </si>
-  <si>
-    <t>761 Jessica Spurs West Karenhaven</t>
-  </si>
-  <si>
-    <t>(091)124-6254x6615</t>
-  </si>
-  <si>
-    <t>obolton@holmes.info</t>
-  </si>
-  <si>
-    <t>Gấu bông Kuromi hắc ám</t>
-  </si>
-  <si>
-    <t>INV409374</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Minh Hiếu</t>
-  </si>
-  <si>
-    <t>455 Corey Harbors Duncanshire</t>
-  </si>
-  <si>
-    <t>6380105820</t>
-  </si>
-  <si>
-    <t>INV915867</t>
-  </si>
-  <si>
-    <t>Ruth Campbell</t>
-  </si>
-  <si>
-    <t>144 Tammy Plaza South Jerryside</t>
-  </si>
-  <si>
-    <t>817-182-5920x2645</t>
-  </si>
-  <si>
-    <t>timothy43@abbott.net</t>
-  </si>
-  <si>
     <t>Heo ôm bình sữa</t>
-  </si>
-  <si>
-    <t>INV834210</t>
-  </si>
-  <si>
-    <t>Pamela Maldonado</t>
-  </si>
-  <si>
-    <t>454 Rich Prairie Lorichester</t>
-  </si>
-  <si>
-    <t>071-095-0932</t>
-  </si>
-  <si>
-    <t>rileyralph@yahoo.com</t>
-  </si>
-  <si>
-    <t>[BST Fashion Is In The Air] Pink Without Black</t>
-  </si>
-  <si>
-    <t>INV822163</t>
-  </si>
-  <si>
-    <t>Jacqueline Mullins</t>
-  </si>
-  <si>
-    <t>42 Kelly Prairie North Natalie</t>
-  </si>
-  <si>
-    <t>001-459-794-9377x7583</t>
-  </si>
-  <si>
-    <t>riceanthony@yahoo.com</t>
-  </si>
-  <si>
-    <t>Gấu bông Lena cospaly Losto</t>
-  </si>
-  <si>
-    <t>INV763944</t>
-  </si>
-  <si>
-    <t>Darlene Hamilton</t>
-  </si>
-  <si>
-    <t>855 Gates Shoal Barneshaven</t>
-  </si>
-  <si>
-    <t>(679)904-6503x849</t>
-  </si>
-  <si>
-    <t>lindsey82@barber-morris.net</t>
-  </si>
-  <si>
-    <t>Gấu bông Kuromi Xám</t>
   </si>
   <si>
     <t>INV144934</t>
@@ -644,190 +356,7 @@
     <t>Sanrio loan màu xanh</t>
   </si>
   <si>
-    <t>INV151297</t>
-  </si>
-  <si>
-    <t>Charles Martinez</t>
-  </si>
-  <si>
-    <t>213 Joseph Crossing Holmesview</t>
-  </si>
-  <si>
-    <t>001-783-258-5220x57410</t>
-  </si>
-  <si>
-    <t>areynolds@lindsey.com</t>
-  </si>
-  <si>
-    <t>[BST Fashion Is In The Air] PrettyGirl</t>
-  </si>
-  <si>
-    <t>INV266927</t>
-  </si>
-  <si>
-    <t>Alan Smith</t>
-  </si>
-  <si>
-    <t>783 Taylor Roads Maynardmouth</t>
-  </si>
-  <si>
-    <t>096-800-5945x06228</t>
-  </si>
-  <si>
-    <t>bjohnson@hotmail.com</t>
-  </si>
-  <si>
-    <t>Gấu bông heo ôm bình sữa</t>
-  </si>
-  <si>
-    <t>INV854364</t>
-  </si>
-  <si>
-    <t>Andrew Ponce PhD</t>
-  </si>
-  <si>
-    <t>355 Johnson Plaza Sextonmouth</t>
-  </si>
-  <si>
-    <t>0644978764</t>
-  </si>
-  <si>
-    <t>rjones@hotmail.com</t>
-  </si>
-  <si>
-    <t>INV755636</t>
-  </si>
-  <si>
-    <t>Kevin Bell</t>
-  </si>
-  <si>
-    <t>207 Williams Port Annside</t>
-  </si>
-  <si>
-    <t>778.238.7779</t>
-  </si>
-  <si>
-    <t>juan81@hotmail.com</t>
-  </si>
-  <si>
-    <t>Gấu bông teddy bear áo len</t>
-  </si>
-  <si>
-    <t>INV151512</t>
-  </si>
-  <si>
-    <t>Michael Hamilton</t>
-  </si>
-  <si>
-    <t>339 Patrick Divide South Sarahhaven</t>
-  </si>
-  <si>
-    <t>(266)583-0995x913</t>
-  </si>
-  <si>
-    <t>philip96@hotmail.com</t>
-  </si>
-  <si>
-    <t>INV206301</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>123 Lê Lợi, TP.HCM</t>
-  </si>
-  <si>
-    <t>0901234567</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>Sản phẩm A</t>
-  </si>
-  <si>
-    <t>INV206302</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>456 Nguyễn Huệ, TP.HCM</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>b@gmail.com</t>
-  </si>
-  <si>
-    <t>Sản phẩm B</t>
-  </si>
-  <si>
-    <t>INV206303</t>
-  </si>
-  <si>
-    <t>Lê Minh C</t>
-  </si>
-  <si>
-    <t>789 Trần Hưng Đạo, TP.HCM</t>
-  </si>
-  <si>
-    <t>0923456789</t>
-  </si>
-  <si>
-    <t>c@gmail.com</t>
-  </si>
-  <si>
-    <t>Sản phẩm C</t>
-  </si>
-  <si>
-    <t>INV206304</t>
-  </si>
-  <si>
-    <t>Phạm Thị D</t>
-  </si>
-  <si>
-    <t>101 Võ Thị Sáu, TP.HCM</t>
-  </si>
-  <si>
-    <t>0934567890</t>
-  </si>
-  <si>
-    <t>d@gmail.com</t>
-  </si>
-  <si>
-    <t>Sản phẩm D</t>
-  </si>
-  <si>
-    <t>INV206305</t>
-  </si>
-  <si>
-    <t>Hoàng Văn E</t>
-  </si>
-  <si>
-    <t>202 Bạch Đằng, TP.HCM</t>
-  </si>
-  <si>
-    <t>0945678901</t>
-  </si>
-  <si>
-    <t>e@gmail.com</t>
-  </si>
-  <si>
-    <t>Sản phẩm E</t>
-  </si>
-  <si>
     <t>Võ Thị Huyền Trang</t>
-  </si>
-  <si>
-    <t>khainq224117@st.uel.edu.vn</t>
-  </si>
-  <si>
-    <t>khainq224116@st.uel.edu.vn</t>
-  </si>
-  <si>
-    <t>lannqh224151@st.uel.edu.vn</t>
   </si>
   <si>
     <t>trangttt2241155@st.uel.edu.vn</t>
@@ -1169,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L980"/>
+  <dimension ref="A1:L937"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1262,7 +791,7 @@
         <v>2200000</v>
       </c>
       <c r="L2" s="9">
-        <f t="shared" ref="L2:L87" si="0">K2*J2</f>
+        <f t="shared" ref="L2:L31" si="0">K2*J2</f>
         <v>2200000</v>
       </c>
     </row>
@@ -1796,7 +1325,7 @@
         <v>58</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>25</v>
@@ -1835,7 +1364,7 @@
         <v>59</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>43</v>
@@ -1874,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>43</v>
@@ -1913,7 +1442,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>43</v>
@@ -1931,2655 +1460,1255 @@
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>45797</v>
+        <v>45810</v>
       </c>
       <c r="D20" s="5">
-        <v>46163</v>
+        <v>46176</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K20" s="8">
-        <v>250000</v>
+        <v>120000</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="0"/>
-        <v>2500000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>45798</v>
+        <v>45817</v>
       </c>
       <c r="D21" s="5">
-        <v>46164</v>
+        <v>46183</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K21" s="8">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="L21" s="9">
         <f t="shared" si="0"/>
-        <v>2000000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
       <c r="C22" s="5">
-        <v>45799</v>
+        <v>45818</v>
       </c>
       <c r="D22" s="5">
-        <v>46165</v>
+        <v>46184</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J22" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K22" s="8">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="L22" s="9">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="5">
-        <v>45800</v>
+        <v>45819</v>
       </c>
       <c r="D23" s="5">
-        <v>46166</v>
+        <v>46185</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="J23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" s="8">
-        <v>80000</v>
+        <v>320000</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="0"/>
-        <v>320000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
       </c>
       <c r="C24" s="5">
-        <v>45801</v>
+        <v>45820</v>
       </c>
       <c r="D24" s="5">
-        <v>46167</v>
+        <v>46186</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="J24" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K24" s="8">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="L24" s="9">
         <f t="shared" si="0"/>
-        <v>240000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45821</v>
+      </c>
+      <c r="D25" s="5">
+        <v>46187</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="5">
-        <v>45802</v>
-      </c>
-      <c r="D25" s="5">
-        <v>46168</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="3">
-        <v>8</v>
-      </c>
       <c r="K25" s="8">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="0"/>
-        <v>800000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
       </c>
       <c r="C26" s="5">
-        <v>45803</v>
+        <v>45822</v>
       </c>
       <c r="D26" s="5">
-        <v>46169</v>
+        <v>46188</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="J26" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K26" s="8">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="0"/>
-        <v>1200000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="5">
-        <v>45804</v>
+        <v>45823</v>
       </c>
       <c r="D27" s="5">
-        <v>46170</v>
+        <v>46189</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="8">
-        <v>120000</v>
+        <v>250000</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="0"/>
-        <v>720000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>45805</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>45909</v>
       </c>
       <c r="D28" s="5">
-        <v>46171</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>46214</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J28" s="3">
-        <v>9</v>
-      </c>
-      <c r="K28" s="8">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
         <v>180000</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="0"/>
-        <v>1620000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5">
-        <v>45806</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>45910</v>
       </c>
       <c r="D29" s="5">
-        <v>46172</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>116</v>
+        <v>46215</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>120</v>
+        <v>62</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="J29" s="3">
-        <v>10</v>
-      </c>
-      <c r="K29" s="8">
-        <v>250000</v>
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>80000</v>
       </c>
       <c r="L29" s="9">
         <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
-        <v>45807</v>
+      <c r="C30" s="10">
+        <v>45911</v>
       </c>
       <c r="D30" s="5">
-        <v>46173</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>46216</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="8">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3">
         <v>80000</v>
       </c>
       <c r="L30" s="9">
         <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="5">
-        <v>45808</v>
+      <c r="C31" s="10">
+        <v>45912</v>
       </c>
       <c r="D31" s="5">
-        <v>46174</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>122</v>
+        <v>46217</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="3">
-        <v>8</v>
-      </c>
-      <c r="K31" s="8">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
         <v>80000</v>
       </c>
       <c r="L31" s="9">
         <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5">
-        <v>45809</v>
-      </c>
-      <c r="D32" s="5">
-        <v>46175</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="5">
-        <v>45810</v>
-      </c>
-      <c r="D33" s="5">
-        <v>46176</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="3">
-        <v>9</v>
-      </c>
-      <c r="K33" s="8">
-        <v>120000</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="0"/>
-        <v>1080000</v>
-      </c>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="5">
-        <v>45811</v>
-      </c>
-      <c r="D34" s="5">
-        <v>46177</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="3">
-        <v>9</v>
-      </c>
-      <c r="K34" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="0"/>
-        <v>2250000</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5">
-        <v>45812</v>
-      </c>
-      <c r="D35" s="5">
-        <v>46178</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2</v>
-      </c>
-      <c r="K35" s="8">
-        <v>350000</v>
-      </c>
-      <c r="L35" s="9">
-        <f t="shared" si="0"/>
-        <v>700000</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5">
-        <v>45813</v>
-      </c>
-      <c r="D36" s="5">
-        <v>46179</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J36" s="3">
-        <v>4</v>
-      </c>
-      <c r="K36" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L36" s="9">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5">
-        <v>45814</v>
-      </c>
-      <c r="D37" s="5">
-        <v>46180</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J37" s="3">
-        <v>9</v>
-      </c>
-      <c r="K37" s="8">
-        <v>350000</v>
-      </c>
-      <c r="L37" s="9">
-        <f t="shared" si="0"/>
-        <v>3150000</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>45815</v>
-      </c>
-      <c r="D38" s="5">
-        <v>46181</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="3">
-        <v>3</v>
-      </c>
-      <c r="K38" s="8">
-        <v>120000</v>
-      </c>
-      <c r="L38" s="9">
-        <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>45816</v>
-      </c>
-      <c r="D39" s="5">
-        <v>46182</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3</v>
-      </c>
-      <c r="K39" s="8">
-        <v>200000</v>
-      </c>
-      <c r="L39" s="9">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="5">
-        <v>45817</v>
-      </c>
-      <c r="D40" s="5">
-        <v>46183</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="J40" s="3">
-        <v>7</v>
-      </c>
-      <c r="K40" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L40" s="9">
-        <f t="shared" si="0"/>
-        <v>1750000</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="5">
-        <v>45818</v>
-      </c>
-      <c r="D41" s="5">
-        <v>46184</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J41" s="3">
-        <v>7</v>
-      </c>
-      <c r="K41" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="0"/>
-        <v>1750000</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="5">
-        <v>45819</v>
-      </c>
-      <c r="D42" s="5">
-        <v>46185</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2</v>
-      </c>
-      <c r="K42" s="8">
-        <v>320000</v>
-      </c>
-      <c r="L42" s="9">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5">
-        <v>45820</v>
-      </c>
-      <c r="D43" s="5">
-        <v>46186</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J43" s="3">
-        <v>10</v>
-      </c>
-      <c r="K43" s="8">
-        <v>100000</v>
-      </c>
-      <c r="L43" s="9">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>45821</v>
-      </c>
-      <c r="D44" s="5">
-        <v>46187</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="8">
-        <v>120000</v>
-      </c>
-      <c r="L44" s="9">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="5">
-        <v>45822</v>
-      </c>
-      <c r="D45" s="5">
-        <v>46188</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1</v>
-      </c>
-      <c r="K45" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L45" s="9">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5">
-        <v>45823</v>
-      </c>
-      <c r="D46" s="5">
-        <v>46189</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J46" s="3">
-        <v>5</v>
-      </c>
-      <c r="K46" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L46" s="9">
-        <f t="shared" si="0"/>
-        <v>1250000</v>
-      </c>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0</v>
-      </c>
-      <c r="C47" s="5">
-        <v>45824</v>
-      </c>
-      <c r="D47" s="5">
-        <v>46190</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7</v>
-      </c>
-      <c r="K47" s="8">
-        <v>350000</v>
-      </c>
-      <c r="L47" s="9">
-        <f t="shared" si="0"/>
-        <v>2450000</v>
-      </c>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
-      <c r="C48" s="5">
-        <v>45825</v>
-      </c>
-      <c r="D48" s="5">
-        <v>46191</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J48" s="3">
-        <v>9</v>
-      </c>
-      <c r="K48" s="8">
-        <v>120000</v>
-      </c>
-      <c r="L48" s="9">
-        <f t="shared" si="0"/>
-        <v>1080000</v>
-      </c>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5">
-        <v>45826</v>
-      </c>
-      <c r="D49" s="5">
-        <v>46192</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4</v>
-      </c>
-      <c r="K49" s="8">
-        <v>350000</v>
-      </c>
-      <c r="L49" s="9">
-        <f t="shared" si="0"/>
-        <v>1400000</v>
-      </c>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-      <c r="C50" s="5">
-        <v>45827</v>
-      </c>
-      <c r="D50" s="5">
-        <v>46193</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J50" s="3">
-        <v>8</v>
-      </c>
-      <c r="K50" s="8">
-        <v>150000</v>
-      </c>
-      <c r="L50" s="9">
-        <f t="shared" si="0"/>
-        <v>1200000</v>
-      </c>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <v>45828</v>
-      </c>
-      <c r="D51" s="5">
-        <v>46194</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" s="3">
-        <v>8</v>
-      </c>
-      <c r="K51" s="8">
-        <v>250000</v>
-      </c>
-      <c r="L51" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5">
-        <v>45859</v>
-      </c>
-      <c r="D52" s="5">
-        <v>46195</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L52" s="9">
-        <f t="shared" si="0"/>
-        <v>450000</v>
-      </c>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10">
-        <v>45891</v>
-      </c>
-      <c r="D53" s="5">
-        <v>46196</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J53" s="3">
-        <v>5</v>
-      </c>
-      <c r="K53" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L53" s="9">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="10">
-        <v>45892</v>
-      </c>
-      <c r="D54" s="5">
-        <v>46197</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L54" s="9">
-        <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="4">
-        <v>1</v>
-      </c>
-      <c r="C55" s="10">
-        <v>45893</v>
-      </c>
-      <c r="D55" s="5">
-        <v>46198</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J55" s="3">
-        <v>8</v>
-      </c>
-      <c r="K55" s="3">
-        <v>250000</v>
-      </c>
-      <c r="L55" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1</v>
-      </c>
-      <c r="C56" s="10">
-        <v>45894</v>
-      </c>
-      <c r="D56" s="5">
-        <v>46199</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1</v>
-      </c>
-      <c r="K56" s="3">
-        <v>300000</v>
-      </c>
-      <c r="L56" s="9">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D57" s="5">
-        <v>46200</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2200000</v>
-      </c>
-      <c r="L57" s="9">
-        <f t="shared" si="0"/>
-        <v>2200000</v>
-      </c>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-      <c r="C58" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D58" s="5">
-        <v>46201</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="3">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L58" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-      <c r="C59" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D59" s="5">
-        <v>46202</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2</v>
-      </c>
-      <c r="K59" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L59" s="9">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="4">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D60" s="5">
-        <v>46203</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3">
-        <v>350000</v>
-      </c>
-      <c r="L60" s="9">
-        <f t="shared" si="0"/>
-        <v>2800000</v>
-      </c>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D61" s="5">
-        <v>46204</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2</v>
-      </c>
-      <c r="K61" s="3">
-        <v>180000</v>
-      </c>
-      <c r="L61" s="9">
-        <f t="shared" si="0"/>
-        <v>360000</v>
-      </c>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-      <c r="C62" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D62" s="5">
-        <v>46205</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" s="3">
-        <v>7</v>
-      </c>
-      <c r="K62" s="3">
-        <v>180000</v>
-      </c>
-      <c r="L62" s="9">
-        <f t="shared" si="0"/>
-        <v>1260000</v>
-      </c>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-      <c r="C63" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D63" s="5">
-        <v>46206</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="3">
-        <v>4</v>
-      </c>
-      <c r="K63" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L63" s="9">
-        <f t="shared" si="0"/>
-        <v>480000</v>
-      </c>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D64" s="5">
-        <v>46207</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J64" s="3">
-        <v>1</v>
-      </c>
-      <c r="K64" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L64" s="9">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D65" s="5">
-        <v>46208</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J65" s="3">
-        <v>8</v>
-      </c>
-      <c r="K65" s="3">
-        <v>180000</v>
-      </c>
-      <c r="L65" s="9">
-        <f t="shared" si="0"/>
-        <v>1440000</v>
-      </c>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-      <c r="C66" s="10">
-        <v>45895</v>
-      </c>
-      <c r="D66" s="5">
-        <v>46209</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L66" s="9">
-        <f t="shared" si="0"/>
-        <v>600000</v>
-      </c>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="4">
-        <v>0</v>
-      </c>
-      <c r="C67" s="10">
-        <v>45905</v>
-      </c>
-      <c r="D67" s="5">
-        <v>46210</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J67" s="3">
-        <v>8</v>
-      </c>
-      <c r="K67" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L67" s="9">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="4">
-        <v>0</v>
-      </c>
-      <c r="C68" s="10">
-        <v>45906</v>
-      </c>
-      <c r="D68" s="5">
-        <v>46211</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J68" s="3">
-        <v>9</v>
-      </c>
-      <c r="K68" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L68" s="9">
-        <f t="shared" si="0"/>
-        <v>720000</v>
-      </c>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="4">
-        <v>0</v>
-      </c>
-      <c r="C69" s="10">
-        <v>45907</v>
-      </c>
-      <c r="D69" s="5">
-        <v>46212</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J69" s="3">
-        <v>9</v>
-      </c>
-      <c r="K69" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L69" s="9">
-        <f t="shared" si="0"/>
-        <v>720000</v>
-      </c>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="4">
-        <v>0</v>
-      </c>
-      <c r="C70" s="10">
-        <v>45908</v>
-      </c>
-      <c r="D70" s="5">
-        <v>46213</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J70" s="3">
-        <v>7</v>
-      </c>
-      <c r="K70" s="3">
-        <v>150000</v>
-      </c>
-      <c r="L70" s="9">
-        <f t="shared" si="0"/>
-        <v>1050000</v>
-      </c>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="4">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10">
-        <v>45909</v>
-      </c>
-      <c r="D71" s="5">
-        <v>46214</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" s="3">
-        <v>5</v>
-      </c>
-      <c r="K71" s="3">
-        <v>180000</v>
-      </c>
-      <c r="L71" s="9">
-        <f t="shared" si="0"/>
-        <v>900000</v>
-      </c>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="10">
-        <v>45910</v>
-      </c>
-      <c r="D72" s="5">
-        <v>46215</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L72" s="9">
-        <f t="shared" si="0"/>
-        <v>320000</v>
-      </c>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" s="10">
-        <v>45911</v>
-      </c>
-      <c r="D73" s="5">
-        <v>46216</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J73" s="3">
-        <v>8</v>
-      </c>
-      <c r="K73" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L73" s="9">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10">
-        <v>45912</v>
-      </c>
-      <c r="D74" s="5">
-        <v>46217</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J74" s="3">
-        <v>2</v>
-      </c>
-      <c r="K74" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L74" s="9">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="4">
-        <v>0</v>
-      </c>
-      <c r="C75" s="10">
-        <v>45913</v>
-      </c>
-      <c r="D75" s="5">
-        <v>46218</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J75" s="3">
-        <v>10</v>
-      </c>
-      <c r="K75" s="3">
-        <v>250000</v>
-      </c>
-      <c r="L75" s="9">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="4">
-        <v>0</v>
-      </c>
-      <c r="C76" s="10">
-        <v>45914</v>
-      </c>
-      <c r="D76" s="5">
-        <v>46219</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="3">
-        <v>10</v>
-      </c>
-      <c r="K76" s="3">
-        <v>200000</v>
-      </c>
-      <c r="L76" s="9">
-        <f t="shared" si="0"/>
-        <v>2000000</v>
-      </c>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0</v>
-      </c>
-      <c r="C77" s="10">
-        <v>45915</v>
-      </c>
-      <c r="D77" s="5">
-        <v>46220</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J77" s="3">
-        <v>10</v>
-      </c>
-      <c r="K77" s="3">
-        <v>350000</v>
-      </c>
-      <c r="L77" s="9">
-        <f t="shared" si="0"/>
-        <v>3500000</v>
-      </c>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-      <c r="C78" s="10">
-        <v>45916</v>
-      </c>
-      <c r="D78" s="5">
-        <v>46221</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J78" s="3">
-        <v>4</v>
-      </c>
-      <c r="K78" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L78" s="9">
-        <f t="shared" si="0"/>
-        <v>320000</v>
-      </c>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0</v>
-      </c>
-      <c r="C79" s="10">
-        <v>45917</v>
-      </c>
-      <c r="D79" s="5">
-        <v>46222</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="3">
-        <v>2</v>
-      </c>
-      <c r="K79" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L79" s="9">
-        <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="C80" s="10">
-        <v>45918</v>
-      </c>
-      <c r="D80" s="5">
-        <v>46223</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J80" s="3">
-        <v>8</v>
-      </c>
-      <c r="K80" s="3">
-        <v>100000</v>
-      </c>
-      <c r="L80" s="9">
-        <f t="shared" si="0"/>
-        <v>800000</v>
-      </c>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81" s="4">
-        <v>0</v>
-      </c>
-      <c r="C81" s="10">
-        <v>45919</v>
-      </c>
-      <c r="D81" s="5">
-        <v>46224</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J81" s="3">
-        <v>10</v>
-      </c>
-      <c r="K81" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L81" s="9">
-        <f t="shared" si="0"/>
-        <v>1200000</v>
-      </c>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="4">
-        <v>1</v>
-      </c>
-      <c r="C82" s="10">
-        <v>45920</v>
-      </c>
-      <c r="D82" s="5">
-        <v>46225</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J82" s="3">
-        <v>6</v>
-      </c>
-      <c r="K82" s="3">
-        <v>120000</v>
-      </c>
-      <c r="L82" s="9">
-        <f t="shared" si="0"/>
-        <v>720000</v>
-      </c>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="4">
-        <v>0</v>
-      </c>
-      <c r="C83" s="10">
-        <v>45921</v>
-      </c>
-      <c r="D83" s="5">
-        <v>46226</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J83" s="3">
-        <v>9</v>
-      </c>
-      <c r="K83" s="3">
-        <v>180000</v>
-      </c>
-      <c r="L83" s="9">
-        <f t="shared" si="0"/>
-        <v>1620000</v>
-      </c>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0</v>
-      </c>
-      <c r="C84" s="10">
-        <v>45922</v>
-      </c>
-      <c r="D84" s="5">
-        <v>46227</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J84" s="3">
-        <v>10</v>
-      </c>
-      <c r="K84" s="3">
-        <v>250000</v>
-      </c>
-      <c r="L84" s="9">
-        <f t="shared" si="0"/>
-        <v>2500000</v>
-      </c>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="10">
-        <v>45923</v>
-      </c>
-      <c r="D85" s="5">
-        <v>46228</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J85" s="3">
-        <v>2</v>
-      </c>
-      <c r="K85" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L85" s="9">
-        <f t="shared" si="0"/>
-        <v>160000</v>
-      </c>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="4">
-        <v>1</v>
-      </c>
-      <c r="C86" s="10">
-        <v>45924</v>
-      </c>
-      <c r="D86" s="5">
-        <v>46229</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J86" s="3">
-        <v>8</v>
-      </c>
-      <c r="K86" s="3">
-        <v>80000</v>
-      </c>
-      <c r="L86" s="9">
-        <f t="shared" si="0"/>
-        <v>640000</v>
-      </c>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" s="4">
-        <v>1</v>
-      </c>
-      <c r="C87" s="10">
-        <v>45925</v>
-      </c>
-      <c r="D87" s="5">
-        <v>46230</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J87" s="3">
-        <v>1</v>
-      </c>
-      <c r="K87" s="3">
-        <v>250000</v>
-      </c>
-      <c r="L87" s="9">
-        <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12"/>
@@ -4642,7 +2771,7 @@
       <c r="B92" s="13"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
-      <c r="E92" s="14"/>
+      <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -12297,607 +10426,349 @@
     </row>
     <row r="639" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="12"/>
-      <c r="B639" s="13"/>
+      <c r="B639" s="12"/>
       <c r="C639" s="12"/>
       <c r="D639" s="12"/>
       <c r="E639" s="12"/>
       <c r="F639" s="12"/>
-      <c r="G639" s="12"/>
-      <c r="H639" s="12"/>
-      <c r="I639" s="12"/>
-      <c r="J639" s="12"/>
-      <c r="K639" s="12"/>
-      <c r="L639" s="12"/>
     </row>
     <row r="640" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="12"/>
-      <c r="B640" s="13"/>
+      <c r="B640" s="12"/>
       <c r="C640" s="12"/>
       <c r="D640" s="12"/>
       <c r="E640" s="12"/>
       <c r="F640" s="12"/>
-      <c r="G640" s="12"/>
-      <c r="H640" s="12"/>
-      <c r="I640" s="12"/>
-      <c r="J640" s="12"/>
-      <c r="K640" s="12"/>
-      <c r="L640" s="12"/>
-    </row>
-    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="12"/>
-      <c r="B641" s="13"/>
+      <c r="B641" s="12"/>
       <c r="C641" s="12"/>
       <c r="D641" s="12"/>
       <c r="E641" s="12"/>
       <c r="F641" s="12"/>
-      <c r="G641" s="12"/>
-      <c r="H641" s="12"/>
-      <c r="I641" s="12"/>
-      <c r="J641" s="12"/>
-      <c r="K641" s="12"/>
-      <c r="L641" s="12"/>
-    </row>
-    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="12"/>
-      <c r="B642" s="13"/>
+      <c r="B642" s="12"/>
       <c r="C642" s="12"/>
       <c r="D642" s="12"/>
       <c r="E642" s="12"/>
       <c r="F642" s="12"/>
-      <c r="G642" s="12"/>
-      <c r="H642" s="12"/>
-      <c r="I642" s="12"/>
-      <c r="J642" s="12"/>
-      <c r="K642" s="12"/>
-      <c r="L642" s="12"/>
-    </row>
-    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="12"/>
-      <c r="B643" s="13"/>
+      <c r="B643" s="12"/>
       <c r="C643" s="12"/>
       <c r="D643" s="12"/>
       <c r="E643" s="12"/>
       <c r="F643" s="12"/>
-      <c r="G643" s="12"/>
-      <c r="H643" s="12"/>
-      <c r="I643" s="12"/>
-      <c r="J643" s="12"/>
-      <c r="K643" s="12"/>
-      <c r="L643" s="12"/>
-    </row>
-    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="12"/>
-      <c r="B644" s="13"/>
+      <c r="B644" s="12"/>
       <c r="C644" s="12"/>
       <c r="D644" s="12"/>
       <c r="E644" s="12"/>
       <c r="F644" s="12"/>
-      <c r="G644" s="12"/>
-      <c r="H644" s="12"/>
-      <c r="I644" s="12"/>
-      <c r="J644" s="12"/>
-      <c r="K644" s="12"/>
-      <c r="L644" s="12"/>
-    </row>
-    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="12"/>
-      <c r="B645" s="13"/>
+      <c r="B645" s="12"/>
       <c r="C645" s="12"/>
       <c r="D645" s="12"/>
       <c r="E645" s="12"/>
       <c r="F645" s="12"/>
-      <c r="G645" s="12"/>
-      <c r="H645" s="12"/>
-      <c r="I645" s="12"/>
-      <c r="J645" s="12"/>
-      <c r="K645" s="12"/>
-      <c r="L645" s="12"/>
-    </row>
-    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="12"/>
-      <c r="B646" s="13"/>
+      <c r="B646" s="12"/>
       <c r="C646" s="12"/>
       <c r="D646" s="12"/>
       <c r="E646" s="12"/>
       <c r="F646" s="12"/>
-      <c r="G646" s="12"/>
-      <c r="H646" s="12"/>
-      <c r="I646" s="12"/>
-      <c r="J646" s="12"/>
-      <c r="K646" s="12"/>
-      <c r="L646" s="12"/>
-    </row>
-    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="12"/>
-      <c r="B647" s="13"/>
+      <c r="B647" s="12"/>
       <c r="C647" s="12"/>
       <c r="D647" s="12"/>
       <c r="E647" s="12"/>
       <c r="F647" s="12"/>
-      <c r="G647" s="12"/>
-      <c r="H647" s="12"/>
-      <c r="I647" s="12"/>
-      <c r="J647" s="12"/>
-      <c r="K647" s="12"/>
-      <c r="L647" s="12"/>
-    </row>
-    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="12"/>
-      <c r="B648" s="13"/>
+      <c r="B648" s="12"/>
       <c r="C648" s="12"/>
       <c r="D648" s="12"/>
       <c r="E648" s="12"/>
       <c r="F648" s="12"/>
-      <c r="G648" s="12"/>
-      <c r="H648" s="12"/>
-      <c r="I648" s="12"/>
-      <c r="J648" s="12"/>
-      <c r="K648" s="12"/>
-      <c r="L648" s="12"/>
-    </row>
-    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="12"/>
-      <c r="B649" s="13"/>
+      <c r="B649" s="12"/>
       <c r="C649" s="12"/>
       <c r="D649" s="12"/>
       <c r="E649" s="12"/>
       <c r="F649" s="12"/>
-      <c r="G649" s="12"/>
-      <c r="H649" s="12"/>
-      <c r="I649" s="12"/>
-      <c r="J649" s="12"/>
-      <c r="K649" s="12"/>
-      <c r="L649" s="12"/>
-    </row>
-    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="12"/>
-      <c r="B650" s="13"/>
+      <c r="B650" s="12"/>
       <c r="C650" s="12"/>
       <c r="D650" s="12"/>
       <c r="E650" s="12"/>
       <c r="F650" s="12"/>
-      <c r="G650" s="12"/>
-      <c r="H650" s="12"/>
-      <c r="I650" s="12"/>
-      <c r="J650" s="12"/>
-      <c r="K650" s="12"/>
-      <c r="L650" s="12"/>
-    </row>
-    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="12"/>
-      <c r="B651" s="13"/>
+      <c r="B651" s="12"/>
       <c r="C651" s="12"/>
       <c r="D651" s="12"/>
       <c r="E651" s="12"/>
       <c r="F651" s="12"/>
-      <c r="G651" s="12"/>
-      <c r="H651" s="12"/>
-      <c r="I651" s="12"/>
-      <c r="J651" s="12"/>
-      <c r="K651" s="12"/>
-      <c r="L651" s="12"/>
-    </row>
-    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="12"/>
-      <c r="B652" s="13"/>
+      <c r="B652" s="12"/>
       <c r="C652" s="12"/>
       <c r="D652" s="12"/>
       <c r="E652" s="12"/>
       <c r="F652" s="12"/>
-      <c r="G652" s="12"/>
-      <c r="H652" s="12"/>
-      <c r="I652" s="12"/>
-      <c r="J652" s="12"/>
-      <c r="K652" s="12"/>
-      <c r="L652" s="12"/>
-    </row>
-    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="12"/>
-      <c r="B653" s="13"/>
+      <c r="B653" s="12"/>
       <c r="C653" s="12"/>
       <c r="D653" s="12"/>
       <c r="E653" s="12"/>
       <c r="F653" s="12"/>
-      <c r="G653" s="12"/>
-      <c r="H653" s="12"/>
-      <c r="I653" s="12"/>
-      <c r="J653" s="12"/>
-      <c r="K653" s="12"/>
-      <c r="L653" s="12"/>
-    </row>
-    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="12"/>
-      <c r="B654" s="13"/>
+      <c r="B654" s="12"/>
       <c r="C654" s="12"/>
       <c r="D654" s="12"/>
       <c r="E654" s="12"/>
       <c r="F654" s="12"/>
-      <c r="G654" s="12"/>
-      <c r="H654" s="12"/>
-      <c r="I654" s="12"/>
-      <c r="J654" s="12"/>
-      <c r="K654" s="12"/>
-      <c r="L654" s="12"/>
-    </row>
-    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="12"/>
-      <c r="B655" s="13"/>
+      <c r="B655" s="12"/>
       <c r="C655" s="12"/>
       <c r="D655" s="12"/>
       <c r="E655" s="12"/>
       <c r="F655" s="12"/>
-      <c r="G655" s="12"/>
-      <c r="H655" s="12"/>
-      <c r="I655" s="12"/>
-      <c r="J655" s="12"/>
-      <c r="K655" s="12"/>
-      <c r="L655" s="12"/>
-    </row>
-    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="12"/>
-      <c r="B656" s="13"/>
+      <c r="B656" s="12"/>
       <c r="C656" s="12"/>
       <c r="D656" s="12"/>
       <c r="E656" s="12"/>
       <c r="F656" s="12"/>
-      <c r="G656" s="12"/>
-      <c r="H656" s="12"/>
-      <c r="I656" s="12"/>
-      <c r="J656" s="12"/>
-      <c r="K656" s="12"/>
-      <c r="L656" s="12"/>
-    </row>
-    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="12"/>
-      <c r="B657" s="13"/>
+      <c r="B657" s="12"/>
       <c r="C657" s="12"/>
       <c r="D657" s="12"/>
       <c r="E657" s="12"/>
       <c r="F657" s="12"/>
-      <c r="G657" s="12"/>
-      <c r="H657" s="12"/>
-      <c r="I657" s="12"/>
-      <c r="J657" s="12"/>
-      <c r="K657" s="12"/>
-      <c r="L657" s="12"/>
-    </row>
-    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="12"/>
-      <c r="B658" s="13"/>
+      <c r="B658" s="12"/>
       <c r="C658" s="12"/>
       <c r="D658" s="12"/>
       <c r="E658" s="12"/>
       <c r="F658" s="12"/>
-      <c r="G658" s="12"/>
-      <c r="H658" s="12"/>
-      <c r="I658" s="12"/>
-      <c r="J658" s="12"/>
-      <c r="K658" s="12"/>
-      <c r="L658" s="12"/>
-    </row>
-    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="12"/>
-      <c r="B659" s="13"/>
+      <c r="B659" s="12"/>
       <c r="C659" s="12"/>
       <c r="D659" s="12"/>
       <c r="E659" s="12"/>
       <c r="F659" s="12"/>
-      <c r="G659" s="12"/>
-      <c r="H659" s="12"/>
-      <c r="I659" s="12"/>
-      <c r="J659" s="12"/>
-      <c r="K659" s="12"/>
-      <c r="L659" s="12"/>
-    </row>
-    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="12"/>
-      <c r="B660" s="13"/>
+      <c r="B660" s="12"/>
       <c r="C660" s="12"/>
       <c r="D660" s="12"/>
       <c r="E660" s="12"/>
       <c r="F660" s="12"/>
-      <c r="G660" s="12"/>
-      <c r="H660" s="12"/>
-      <c r="I660" s="12"/>
-      <c r="J660" s="12"/>
-      <c r="K660" s="12"/>
-      <c r="L660" s="12"/>
-    </row>
-    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="12"/>
-      <c r="B661" s="13"/>
+      <c r="B661" s="12"/>
       <c r="C661" s="12"/>
       <c r="D661" s="12"/>
       <c r="E661" s="12"/>
       <c r="F661" s="12"/>
-      <c r="G661" s="12"/>
-      <c r="H661" s="12"/>
-      <c r="I661" s="12"/>
-      <c r="J661" s="12"/>
-      <c r="K661" s="12"/>
-      <c r="L661" s="12"/>
-    </row>
-    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="12"/>
-      <c r="B662" s="13"/>
+      <c r="B662" s="12"/>
       <c r="C662" s="12"/>
       <c r="D662" s="12"/>
       <c r="E662" s="12"/>
       <c r="F662" s="12"/>
-      <c r="G662" s="12"/>
-      <c r="H662" s="12"/>
-      <c r="I662" s="12"/>
-      <c r="J662" s="12"/>
-      <c r="K662" s="12"/>
-      <c r="L662" s="12"/>
-    </row>
-    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="12"/>
-      <c r="B663" s="13"/>
+      <c r="B663" s="12"/>
       <c r="C663" s="12"/>
       <c r="D663" s="12"/>
       <c r="E663" s="12"/>
       <c r="F663" s="12"/>
-      <c r="G663" s="12"/>
-      <c r="H663" s="12"/>
-      <c r="I663" s="12"/>
-      <c r="J663" s="12"/>
-      <c r="K663" s="12"/>
-      <c r="L663" s="12"/>
-    </row>
-    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="12"/>
-      <c r="B664" s="13"/>
+      <c r="B664" s="12"/>
       <c r="C664" s="12"/>
       <c r="D664" s="12"/>
       <c r="E664" s="12"/>
       <c r="F664" s="12"/>
-      <c r="G664" s="12"/>
-      <c r="H664" s="12"/>
-      <c r="I664" s="12"/>
-      <c r="J664" s="12"/>
-      <c r="K664" s="12"/>
-      <c r="L664" s="12"/>
-    </row>
-    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="12"/>
-      <c r="B665" s="13"/>
+      <c r="B665" s="12"/>
       <c r="C665" s="12"/>
       <c r="D665" s="12"/>
       <c r="E665" s="12"/>
       <c r="F665" s="12"/>
-      <c r="G665" s="12"/>
-      <c r="H665" s="12"/>
-      <c r="I665" s="12"/>
-      <c r="J665" s="12"/>
-      <c r="K665" s="12"/>
-      <c r="L665" s="12"/>
-    </row>
-    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="12"/>
-      <c r="B666" s="13"/>
+      <c r="B666" s="12"/>
       <c r="C666" s="12"/>
       <c r="D666" s="12"/>
       <c r="E666" s="12"/>
       <c r="F666" s="12"/>
-      <c r="G666" s="12"/>
-      <c r="H666" s="12"/>
-      <c r="I666" s="12"/>
-      <c r="J666" s="12"/>
-      <c r="K666" s="12"/>
-      <c r="L666" s="12"/>
-    </row>
-    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="12"/>
-      <c r="B667" s="13"/>
+      <c r="B667" s="12"/>
       <c r="C667" s="12"/>
       <c r="D667" s="12"/>
       <c r="E667" s="12"/>
       <c r="F667" s="12"/>
-      <c r="G667" s="12"/>
-      <c r="H667" s="12"/>
-      <c r="I667" s="12"/>
-      <c r="J667" s="12"/>
-      <c r="K667" s="12"/>
-      <c r="L667" s="12"/>
-    </row>
-    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="12"/>
-      <c r="B668" s="13"/>
+      <c r="B668" s="12"/>
       <c r="C668" s="12"/>
       <c r="D668" s="12"/>
       <c r="E668" s="12"/>
       <c r="F668" s="12"/>
-      <c r="G668" s="12"/>
-      <c r="H668" s="12"/>
-      <c r="I668" s="12"/>
-      <c r="J668" s="12"/>
-      <c r="K668" s="12"/>
-      <c r="L668" s="12"/>
-    </row>
-    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="12"/>
-      <c r="B669" s="13"/>
+      <c r="B669" s="12"/>
       <c r="C669" s="12"/>
       <c r="D669" s="12"/>
       <c r="E669" s="12"/>
       <c r="F669" s="12"/>
-      <c r="G669" s="12"/>
-      <c r="H669" s="12"/>
-      <c r="I669" s="12"/>
-      <c r="J669" s="12"/>
-      <c r="K669" s="12"/>
-      <c r="L669" s="12"/>
-    </row>
-    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="12"/>
-      <c r="B670" s="13"/>
+      <c r="B670" s="12"/>
       <c r="C670" s="12"/>
       <c r="D670" s="12"/>
       <c r="E670" s="12"/>
       <c r="F670" s="12"/>
-      <c r="G670" s="12"/>
-      <c r="H670" s="12"/>
-      <c r="I670" s="12"/>
-      <c r="J670" s="12"/>
-      <c r="K670" s="12"/>
-      <c r="L670" s="12"/>
-    </row>
-    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="12"/>
-      <c r="B671" s="13"/>
+      <c r="B671" s="12"/>
       <c r="C671" s="12"/>
       <c r="D671" s="12"/>
       <c r="E671" s="12"/>
       <c r="F671" s="12"/>
-      <c r="G671" s="12"/>
-      <c r="H671" s="12"/>
-      <c r="I671" s="12"/>
-      <c r="J671" s="12"/>
-      <c r="K671" s="12"/>
-      <c r="L671" s="12"/>
-    </row>
-    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="12"/>
-      <c r="B672" s="13"/>
+      <c r="B672" s="12"/>
       <c r="C672" s="12"/>
       <c r="D672" s="12"/>
       <c r="E672" s="12"/>
       <c r="F672" s="12"/>
-      <c r="G672" s="12"/>
-      <c r="H672" s="12"/>
-      <c r="I672" s="12"/>
-      <c r="J672" s="12"/>
-      <c r="K672" s="12"/>
-      <c r="L672" s="12"/>
-    </row>
-    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="12"/>
-      <c r="B673" s="13"/>
+      <c r="B673" s="12"/>
       <c r="C673" s="12"/>
       <c r="D673" s="12"/>
       <c r="E673" s="12"/>
       <c r="F673" s="12"/>
-      <c r="G673" s="12"/>
-      <c r="H673" s="12"/>
-      <c r="I673" s="12"/>
-      <c r="J673" s="12"/>
-      <c r="K673" s="12"/>
-      <c r="L673" s="12"/>
-    </row>
-    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="12"/>
-      <c r="B674" s="13"/>
+      <c r="B674" s="12"/>
       <c r="C674" s="12"/>
       <c r="D674" s="12"/>
       <c r="E674" s="12"/>
       <c r="F674" s="12"/>
-      <c r="G674" s="12"/>
-      <c r="H674" s="12"/>
-      <c r="I674" s="12"/>
-      <c r="J674" s="12"/>
-      <c r="K674" s="12"/>
-      <c r="L674" s="12"/>
-    </row>
-    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="12"/>
-      <c r="B675" s="13"/>
+      <c r="B675" s="12"/>
       <c r="C675" s="12"/>
       <c r="D675" s="12"/>
       <c r="E675" s="12"/>
       <c r="F675" s="12"/>
-      <c r="G675" s="12"/>
-      <c r="H675" s="12"/>
-      <c r="I675" s="12"/>
-      <c r="J675" s="12"/>
-      <c r="K675" s="12"/>
-      <c r="L675" s="12"/>
-    </row>
-    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="12"/>
-      <c r="B676" s="13"/>
+      <c r="B676" s="12"/>
       <c r="C676" s="12"/>
       <c r="D676" s="12"/>
       <c r="E676" s="12"/>
       <c r="F676" s="12"/>
-      <c r="G676" s="12"/>
-      <c r="H676" s="12"/>
-      <c r="I676" s="12"/>
-      <c r="J676" s="12"/>
-      <c r="K676" s="12"/>
-      <c r="L676" s="12"/>
-    </row>
-    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="12"/>
-      <c r="B677" s="13"/>
+      <c r="B677" s="12"/>
       <c r="C677" s="12"/>
       <c r="D677" s="12"/>
       <c r="E677" s="12"/>
       <c r="F677" s="12"/>
-      <c r="G677" s="12"/>
-      <c r="H677" s="12"/>
-      <c r="I677" s="12"/>
-      <c r="J677" s="12"/>
-      <c r="K677" s="12"/>
-      <c r="L677" s="12"/>
-    </row>
-    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="12"/>
-      <c r="B678" s="13"/>
+      <c r="B678" s="12"/>
       <c r="C678" s="12"/>
       <c r="D678" s="12"/>
       <c r="E678" s="12"/>
       <c r="F678" s="12"/>
-      <c r="G678" s="12"/>
-      <c r="H678" s="12"/>
-      <c r="I678" s="12"/>
-      <c r="J678" s="12"/>
-      <c r="K678" s="12"/>
-      <c r="L678" s="12"/>
-    </row>
-    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="12"/>
-      <c r="B679" s="13"/>
+      <c r="B679" s="12"/>
       <c r="C679" s="12"/>
       <c r="D679" s="12"/>
       <c r="E679" s="12"/>
       <c r="F679" s="12"/>
-      <c r="G679" s="12"/>
-      <c r="H679" s="12"/>
-      <c r="I679" s="12"/>
-      <c r="J679" s="12"/>
-      <c r="K679" s="12"/>
-      <c r="L679" s="12"/>
-    </row>
-    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="12"/>
-      <c r="B680" s="13"/>
+      <c r="B680" s="12"/>
       <c r="C680" s="12"/>
       <c r="D680" s="12"/>
       <c r="E680" s="12"/>
       <c r="F680" s="12"/>
-      <c r="G680" s="12"/>
-      <c r="H680" s="12"/>
-      <c r="I680" s="12"/>
-      <c r="J680" s="12"/>
-      <c r="K680" s="12"/>
-      <c r="L680" s="12"/>
-    </row>
-    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="12"/>
-      <c r="B681" s="13"/>
+      <c r="B681" s="12"/>
       <c r="C681" s="12"/>
       <c r="D681" s="12"/>
       <c r="E681" s="12"/>
       <c r="F681" s="12"/>
-      <c r="G681" s="12"/>
-      <c r="H681" s="12"/>
-      <c r="I681" s="12"/>
-      <c r="J681" s="12"/>
-      <c r="K681" s="12"/>
-      <c r="L681" s="12"/>
-    </row>
-    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -12905,7 +10776,7 @@
       <c r="E682" s="12"/>
       <c r="F682" s="12"/>
     </row>
-    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="12"/>
       <c r="B683" s="12"/>
       <c r="C683" s="12"/>
@@ -12913,7 +10784,7 @@
       <c r="E683" s="12"/>
       <c r="F683" s="12"/>
     </row>
-    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -12921,7 +10792,7 @@
       <c r="E684" s="12"/>
       <c r="F684" s="12"/>
     </row>
-    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -12929,7 +10800,7 @@
       <c r="E685" s="12"/>
       <c r="F685" s="12"/>
     </row>
-    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -12937,7 +10808,7 @@
       <c r="E686" s="12"/>
       <c r="F686" s="12"/>
     </row>
-    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -12945,7 +10816,7 @@
       <c r="E687" s="12"/>
       <c r="F687" s="12"/>
     </row>
-    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -13337,7 +11208,7 @@
       <c r="E736" s="12"/>
       <c r="F736" s="12"/>
     </row>
-    <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -13345,7 +11216,7 @@
       <c r="E737" s="12"/>
       <c r="F737" s="12"/>
     </row>
-    <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -13353,349 +11224,607 @@
       <c r="E738" s="12"/>
       <c r="F738" s="12"/>
     </row>
-    <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="12"/>
-      <c r="B739" s="12"/>
+      <c r="B739" s="13"/>
       <c r="C739" s="12"/>
       <c r="D739" s="12"/>
       <c r="E739" s="12"/>
       <c r="F739" s="12"/>
-    </row>
-    <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G739" s="12"/>
+      <c r="H739" s="12"/>
+      <c r="I739" s="12"/>
+      <c r="J739" s="12"/>
+      <c r="K739" s="12"/>
+      <c r="L739" s="12"/>
+    </row>
+    <row r="740" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="12"/>
-      <c r="B740" s="12"/>
+      <c r="B740" s="13"/>
       <c r="C740" s="12"/>
       <c r="D740" s="12"/>
       <c r="E740" s="12"/>
       <c r="F740" s="12"/>
-    </row>
-    <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G740" s="12"/>
+      <c r="H740" s="12"/>
+      <c r="I740" s="12"/>
+      <c r="J740" s="12"/>
+      <c r="K740" s="12"/>
+      <c r="L740" s="12"/>
+    </row>
+    <row r="741" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="12"/>
-      <c r="B741" s="12"/>
+      <c r="B741" s="13"/>
       <c r="C741" s="12"/>
       <c r="D741" s="12"/>
       <c r="E741" s="12"/>
       <c r="F741" s="12"/>
-    </row>
-    <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G741" s="12"/>
+      <c r="H741" s="12"/>
+      <c r="I741" s="12"/>
+      <c r="J741" s="12"/>
+      <c r="K741" s="12"/>
+      <c r="L741" s="12"/>
+    </row>
+    <row r="742" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
+      <c r="B742" s="13"/>
       <c r="C742" s="12"/>
       <c r="D742" s="12"/>
       <c r="E742" s="12"/>
       <c r="F742" s="12"/>
-    </row>
-    <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G742" s="12"/>
+      <c r="H742" s="12"/>
+      <c r="I742" s="12"/>
+      <c r="J742" s="12"/>
+      <c r="K742" s="12"/>
+      <c r="L742" s="12"/>
+    </row>
+    <row r="743" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="12"/>
-      <c r="B743" s="12"/>
+      <c r="B743" s="13"/>
       <c r="C743" s="12"/>
       <c r="D743" s="12"/>
       <c r="E743" s="12"/>
       <c r="F743" s="12"/>
-    </row>
-    <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G743" s="12"/>
+      <c r="H743" s="12"/>
+      <c r="I743" s="12"/>
+      <c r="J743" s="12"/>
+      <c r="K743" s="12"/>
+      <c r="L743" s="12"/>
+    </row>
+    <row r="744" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="12"/>
-      <c r="B744" s="12"/>
+      <c r="B744" s="13"/>
       <c r="C744" s="12"/>
       <c r="D744" s="12"/>
       <c r="E744" s="12"/>
       <c r="F744" s="12"/>
-    </row>
-    <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G744" s="12"/>
+      <c r="H744" s="12"/>
+      <c r="I744" s="12"/>
+      <c r="J744" s="12"/>
+      <c r="K744" s="12"/>
+      <c r="L744" s="12"/>
+    </row>
+    <row r="745" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="12"/>
-      <c r="B745" s="12"/>
+      <c r="B745" s="13"/>
       <c r="C745" s="12"/>
       <c r="D745" s="12"/>
       <c r="E745" s="12"/>
       <c r="F745" s="12"/>
-    </row>
-    <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G745" s="12"/>
+      <c r="H745" s="12"/>
+      <c r="I745" s="12"/>
+      <c r="J745" s="12"/>
+      <c r="K745" s="12"/>
+      <c r="L745" s="12"/>
+    </row>
+    <row r="746" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="12"/>
-      <c r="B746" s="12"/>
+      <c r="B746" s="13"/>
       <c r="C746" s="12"/>
       <c r="D746" s="12"/>
       <c r="E746" s="12"/>
       <c r="F746" s="12"/>
-    </row>
-    <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G746" s="12"/>
+      <c r="H746" s="12"/>
+      <c r="I746" s="12"/>
+      <c r="J746" s="12"/>
+      <c r="K746" s="12"/>
+      <c r="L746" s="12"/>
+    </row>
+    <row r="747" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="12"/>
-      <c r="B747" s="12"/>
+      <c r="B747" s="13"/>
       <c r="C747" s="12"/>
       <c r="D747" s="12"/>
       <c r="E747" s="12"/>
       <c r="F747" s="12"/>
-    </row>
-    <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G747" s="12"/>
+      <c r="H747" s="12"/>
+      <c r="I747" s="12"/>
+      <c r="J747" s="12"/>
+      <c r="K747" s="12"/>
+      <c r="L747" s="12"/>
+    </row>
+    <row r="748" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="12"/>
-      <c r="B748" s="12"/>
+      <c r="B748" s="13"/>
       <c r="C748" s="12"/>
       <c r="D748" s="12"/>
       <c r="E748" s="12"/>
       <c r="F748" s="12"/>
-    </row>
-    <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G748" s="12"/>
+      <c r="H748" s="12"/>
+      <c r="I748" s="12"/>
+      <c r="J748" s="12"/>
+      <c r="K748" s="12"/>
+      <c r="L748" s="12"/>
+    </row>
+    <row r="749" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="12"/>
-      <c r="B749" s="12"/>
+      <c r="B749" s="13"/>
       <c r="C749" s="12"/>
       <c r="D749" s="12"/>
       <c r="E749" s="12"/>
       <c r="F749" s="12"/>
-    </row>
-    <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G749" s="12"/>
+      <c r="H749" s="12"/>
+      <c r="I749" s="12"/>
+      <c r="J749" s="12"/>
+      <c r="K749" s="12"/>
+      <c r="L749" s="12"/>
+    </row>
+    <row r="750" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="12"/>
-      <c r="B750" s="12"/>
+      <c r="B750" s="13"/>
       <c r="C750" s="12"/>
       <c r="D750" s="12"/>
       <c r="E750" s="12"/>
       <c r="F750" s="12"/>
-    </row>
-    <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G750" s="12"/>
+      <c r="H750" s="12"/>
+      <c r="I750" s="12"/>
+      <c r="J750" s="12"/>
+      <c r="K750" s="12"/>
+      <c r="L750" s="12"/>
+    </row>
+    <row r="751" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
+      <c r="B751" s="13"/>
       <c r="C751" s="12"/>
       <c r="D751" s="12"/>
       <c r="E751" s="12"/>
       <c r="F751" s="12"/>
-    </row>
-    <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G751" s="12"/>
+      <c r="H751" s="12"/>
+      <c r="I751" s="12"/>
+      <c r="J751" s="12"/>
+      <c r="K751" s="12"/>
+      <c r="L751" s="12"/>
+    </row>
+    <row r="752" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="12"/>
-      <c r="B752" s="12"/>
+      <c r="B752" s="13"/>
       <c r="C752" s="12"/>
       <c r="D752" s="12"/>
       <c r="E752" s="12"/>
       <c r="F752" s="12"/>
-    </row>
-    <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G752" s="12"/>
+      <c r="H752" s="12"/>
+      <c r="I752" s="12"/>
+      <c r="J752" s="12"/>
+      <c r="K752" s="12"/>
+      <c r="L752" s="12"/>
+    </row>
+    <row r="753" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="12"/>
-      <c r="B753" s="12"/>
+      <c r="B753" s="13"/>
       <c r="C753" s="12"/>
       <c r="D753" s="12"/>
       <c r="E753" s="12"/>
       <c r="F753" s="12"/>
-    </row>
-    <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G753" s="12"/>
+      <c r="H753" s="12"/>
+      <c r="I753" s="12"/>
+      <c r="J753" s="12"/>
+      <c r="K753" s="12"/>
+      <c r="L753" s="12"/>
+    </row>
+    <row r="754" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="12"/>
-      <c r="B754" s="12"/>
+      <c r="B754" s="13"/>
       <c r="C754" s="12"/>
       <c r="D754" s="12"/>
       <c r="E754" s="12"/>
       <c r="F754" s="12"/>
-    </row>
-    <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G754" s="12"/>
+      <c r="H754" s="12"/>
+      <c r="I754" s="12"/>
+      <c r="J754" s="12"/>
+      <c r="K754" s="12"/>
+      <c r="L754" s="12"/>
+    </row>
+    <row r="755" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="12"/>
-      <c r="B755" s="12"/>
+      <c r="B755" s="13"/>
       <c r="C755" s="12"/>
       <c r="D755" s="12"/>
       <c r="E755" s="12"/>
       <c r="F755" s="12"/>
-    </row>
-    <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G755" s="12"/>
+      <c r="H755" s="12"/>
+      <c r="I755" s="12"/>
+      <c r="J755" s="12"/>
+      <c r="K755" s="12"/>
+      <c r="L755" s="12"/>
+    </row>
+    <row r="756" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="12"/>
-      <c r="B756" s="12"/>
+      <c r="B756" s="13"/>
       <c r="C756" s="12"/>
       <c r="D756" s="12"/>
       <c r="E756" s="12"/>
       <c r="F756" s="12"/>
-    </row>
-    <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G756" s="12"/>
+      <c r="H756" s="12"/>
+      <c r="I756" s="12"/>
+      <c r="J756" s="12"/>
+      <c r="K756" s="12"/>
+      <c r="L756" s="12"/>
+    </row>
+    <row r="757" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="12"/>
-      <c r="B757" s="12"/>
+      <c r="B757" s="13"/>
       <c r="C757" s="12"/>
       <c r="D757" s="12"/>
       <c r="E757" s="12"/>
       <c r="F757" s="12"/>
-    </row>
-    <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G757" s="12"/>
+      <c r="H757" s="12"/>
+      <c r="I757" s="12"/>
+      <c r="J757" s="12"/>
+      <c r="K757" s="12"/>
+      <c r="L757" s="12"/>
+    </row>
+    <row r="758" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="12"/>
-      <c r="B758" s="12"/>
+      <c r="B758" s="13"/>
       <c r="C758" s="12"/>
       <c r="D758" s="12"/>
       <c r="E758" s="12"/>
       <c r="F758" s="12"/>
-    </row>
-    <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G758" s="12"/>
+      <c r="H758" s="12"/>
+      <c r="I758" s="12"/>
+      <c r="J758" s="12"/>
+      <c r="K758" s="12"/>
+      <c r="L758" s="12"/>
+    </row>
+    <row r="759" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="12"/>
-      <c r="B759" s="12"/>
+      <c r="B759" s="13"/>
       <c r="C759" s="12"/>
       <c r="D759" s="12"/>
       <c r="E759" s="12"/>
       <c r="F759" s="12"/>
-    </row>
-    <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G759" s="12"/>
+      <c r="H759" s="12"/>
+      <c r="I759" s="12"/>
+      <c r="J759" s="12"/>
+      <c r="K759" s="12"/>
+      <c r="L759" s="12"/>
+    </row>
+    <row r="760" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="12"/>
-      <c r="B760" s="12"/>
+      <c r="B760" s="13"/>
       <c r="C760" s="12"/>
       <c r="D760" s="12"/>
       <c r="E760" s="12"/>
       <c r="F760" s="12"/>
-    </row>
-    <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G760" s="12"/>
+      <c r="H760" s="12"/>
+      <c r="I760" s="12"/>
+      <c r="J760" s="12"/>
+      <c r="K760" s="12"/>
+      <c r="L760" s="12"/>
+    </row>
+    <row r="761" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="12"/>
-      <c r="B761" s="12"/>
+      <c r="B761" s="13"/>
       <c r="C761" s="12"/>
       <c r="D761" s="12"/>
       <c r="E761" s="12"/>
       <c r="F761" s="12"/>
-    </row>
-    <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G761" s="12"/>
+      <c r="H761" s="12"/>
+      <c r="I761" s="12"/>
+      <c r="J761" s="12"/>
+      <c r="K761" s="12"/>
+      <c r="L761" s="12"/>
+    </row>
+    <row r="762" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="12"/>
-      <c r="B762" s="12"/>
+      <c r="B762" s="13"/>
       <c r="C762" s="12"/>
       <c r="D762" s="12"/>
       <c r="E762" s="12"/>
       <c r="F762" s="12"/>
-    </row>
-    <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G762" s="12"/>
+      <c r="H762" s="12"/>
+      <c r="I762" s="12"/>
+      <c r="J762" s="12"/>
+      <c r="K762" s="12"/>
+      <c r="L762" s="12"/>
+    </row>
+    <row r="763" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="12"/>
-      <c r="B763" s="12"/>
+      <c r="B763" s="13"/>
       <c r="C763" s="12"/>
       <c r="D763" s="12"/>
       <c r="E763" s="12"/>
       <c r="F763" s="12"/>
-    </row>
-    <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G763" s="12"/>
+      <c r="H763" s="12"/>
+      <c r="I763" s="12"/>
+      <c r="J763" s="12"/>
+      <c r="K763" s="12"/>
+      <c r="L763" s="12"/>
+    </row>
+    <row r="764" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="12"/>
-      <c r="B764" s="12"/>
+      <c r="B764" s="13"/>
       <c r="C764" s="12"/>
       <c r="D764" s="12"/>
       <c r="E764" s="12"/>
       <c r="F764" s="12"/>
-    </row>
-    <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G764" s="12"/>
+      <c r="H764" s="12"/>
+      <c r="I764" s="12"/>
+      <c r="J764" s="12"/>
+      <c r="K764" s="12"/>
+      <c r="L764" s="12"/>
+    </row>
+    <row r="765" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="12"/>
-      <c r="B765" s="12"/>
+      <c r="B765" s="13"/>
       <c r="C765" s="12"/>
       <c r="D765" s="12"/>
       <c r="E765" s="12"/>
       <c r="F765" s="12"/>
-    </row>
-    <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G765" s="12"/>
+      <c r="H765" s="12"/>
+      <c r="I765" s="12"/>
+      <c r="J765" s="12"/>
+      <c r="K765" s="12"/>
+      <c r="L765" s="12"/>
+    </row>
+    <row r="766" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="12"/>
-      <c r="B766" s="12"/>
+      <c r="B766" s="13"/>
       <c r="C766" s="12"/>
       <c r="D766" s="12"/>
       <c r="E766" s="12"/>
       <c r="F766" s="12"/>
-    </row>
-    <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G766" s="12"/>
+      <c r="H766" s="12"/>
+      <c r="I766" s="12"/>
+      <c r="J766" s="12"/>
+      <c r="K766" s="12"/>
+      <c r="L766" s="12"/>
+    </row>
+    <row r="767" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="12"/>
-      <c r="B767" s="12"/>
+      <c r="B767" s="13"/>
       <c r="C767" s="12"/>
       <c r="D767" s="12"/>
       <c r="E767" s="12"/>
       <c r="F767" s="12"/>
-    </row>
-    <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G767" s="12"/>
+      <c r="H767" s="12"/>
+      <c r="I767" s="12"/>
+      <c r="J767" s="12"/>
+      <c r="K767" s="12"/>
+      <c r="L767" s="12"/>
+    </row>
+    <row r="768" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="12"/>
-      <c r="B768" s="12"/>
+      <c r="B768" s="13"/>
       <c r="C768" s="12"/>
       <c r="D768" s="12"/>
       <c r="E768" s="12"/>
       <c r="F768" s="12"/>
+      <c r="G768" s="12"/>
+      <c r="H768" s="12"/>
+      <c r="I768" s="12"/>
+      <c r="J768" s="12"/>
+      <c r="K768" s="12"/>
+      <c r="L768" s="12"/>
     </row>
     <row r="769" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="12"/>
-      <c r="B769" s="12"/>
+      <c r="B769" s="13"/>
       <c r="C769" s="12"/>
       <c r="D769" s="12"/>
       <c r="E769" s="12"/>
       <c r="F769" s="12"/>
+      <c r="G769" s="12"/>
+      <c r="H769" s="12"/>
+      <c r="I769" s="12"/>
+      <c r="J769" s="12"/>
+      <c r="K769" s="12"/>
+      <c r="L769" s="12"/>
     </row>
     <row r="770" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="12"/>
-      <c r="B770" s="12"/>
+      <c r="B770" s="13"/>
       <c r="C770" s="12"/>
       <c r="D770" s="12"/>
       <c r="E770" s="12"/>
       <c r="F770" s="12"/>
+      <c r="G770" s="12"/>
+      <c r="H770" s="12"/>
+      <c r="I770" s="12"/>
+      <c r="J770" s="12"/>
+      <c r="K770" s="12"/>
+      <c r="L770" s="12"/>
     </row>
     <row r="771" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
+      <c r="B771" s="13"/>
       <c r="C771" s="12"/>
       <c r="D771" s="12"/>
       <c r="E771" s="12"/>
       <c r="F771" s="12"/>
+      <c r="G771" s="12"/>
+      <c r="H771" s="12"/>
+      <c r="I771" s="12"/>
+      <c r="J771" s="12"/>
+      <c r="K771" s="12"/>
+      <c r="L771" s="12"/>
     </row>
     <row r="772" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="12"/>
-      <c r="B772" s="12"/>
+      <c r="B772" s="13"/>
       <c r="C772" s="12"/>
       <c r="D772" s="12"/>
       <c r="E772" s="12"/>
       <c r="F772" s="12"/>
+      <c r="G772" s="12"/>
+      <c r="H772" s="12"/>
+      <c r="I772" s="12"/>
+      <c r="J772" s="12"/>
+      <c r="K772" s="12"/>
+      <c r="L772" s="12"/>
     </row>
     <row r="773" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="12"/>
-      <c r="B773" s="12"/>
+      <c r="B773" s="13"/>
       <c r="C773" s="12"/>
       <c r="D773" s="12"/>
       <c r="E773" s="12"/>
       <c r="F773" s="12"/>
+      <c r="G773" s="12"/>
+      <c r="H773" s="12"/>
+      <c r="I773" s="12"/>
+      <c r="J773" s="12"/>
+      <c r="K773" s="12"/>
+      <c r="L773" s="12"/>
     </row>
     <row r="774" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="12"/>
-      <c r="B774" s="12"/>
+      <c r="B774" s="13"/>
       <c r="C774" s="12"/>
       <c r="D774" s="12"/>
       <c r="E774" s="12"/>
       <c r="F774" s="12"/>
+      <c r="G774" s="12"/>
+      <c r="H774" s="12"/>
+      <c r="I774" s="12"/>
+      <c r="J774" s="12"/>
+      <c r="K774" s="12"/>
+      <c r="L774" s="12"/>
     </row>
     <row r="775" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="12"/>
-      <c r="B775" s="12"/>
+      <c r="B775" s="13"/>
       <c r="C775" s="12"/>
       <c r="D775" s="12"/>
       <c r="E775" s="12"/>
       <c r="F775" s="12"/>
+      <c r="G775" s="12"/>
+      <c r="H775" s="12"/>
+      <c r="I775" s="12"/>
+      <c r="J775" s="12"/>
+      <c r="K775" s="12"/>
+      <c r="L775" s="12"/>
     </row>
     <row r="776" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="12"/>
-      <c r="B776" s="12"/>
+      <c r="B776" s="13"/>
       <c r="C776" s="12"/>
       <c r="D776" s="12"/>
       <c r="E776" s="12"/>
       <c r="F776" s="12"/>
+      <c r="G776" s="12"/>
+      <c r="H776" s="12"/>
+      <c r="I776" s="12"/>
+      <c r="J776" s="12"/>
+      <c r="K776" s="12"/>
+      <c r="L776" s="12"/>
     </row>
     <row r="777" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="12"/>
-      <c r="B777" s="12"/>
+      <c r="B777" s="13"/>
       <c r="C777" s="12"/>
       <c r="D777" s="12"/>
       <c r="E777" s="12"/>
       <c r="F777" s="12"/>
+      <c r="G777" s="12"/>
+      <c r="H777" s="12"/>
+      <c r="I777" s="12"/>
+      <c r="J777" s="12"/>
+      <c r="K777" s="12"/>
+      <c r="L777" s="12"/>
     </row>
     <row r="778" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="12"/>
-      <c r="B778" s="12"/>
+      <c r="B778" s="13"/>
       <c r="C778" s="12"/>
       <c r="D778" s="12"/>
       <c r="E778" s="12"/>
       <c r="F778" s="12"/>
+      <c r="G778" s="12"/>
+      <c r="H778" s="12"/>
+      <c r="I778" s="12"/>
+      <c r="J778" s="12"/>
+      <c r="K778" s="12"/>
+      <c r="L778" s="12"/>
     </row>
     <row r="779" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="12"/>
-      <c r="B779" s="12"/>
+      <c r="B779" s="13"/>
       <c r="C779" s="12"/>
       <c r="D779" s="12"/>
       <c r="E779" s="12"/>
       <c r="F779" s="12"/>
+      <c r="G779" s="12"/>
+      <c r="H779" s="12"/>
+      <c r="I779" s="12"/>
+      <c r="J779" s="12"/>
+      <c r="K779" s="12"/>
+      <c r="L779" s="12"/>
     </row>
     <row r="780" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="12"/>
-      <c r="B780" s="12"/>
+      <c r="B780" s="13"/>
       <c r="C780" s="12"/>
       <c r="D780" s="12"/>
       <c r="E780" s="12"/>
       <c r="F780" s="12"/>
+      <c r="G780" s="12"/>
+      <c r="H780" s="12"/>
+      <c r="I780" s="12"/>
+      <c r="J780" s="12"/>
+      <c r="K780" s="12"/>
+      <c r="L780" s="12"/>
     </row>
     <row r="781" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="12"/>
-      <c r="B781" s="12"/>
+      <c r="B781" s="13"/>
       <c r="C781" s="12"/>
       <c r="D781" s="12"/>
       <c r="E781" s="12"/>
       <c r="F781" s="12"/>
+      <c r="G781" s="12"/>
+      <c r="H781" s="12"/>
+      <c r="I781" s="12"/>
+      <c r="J781" s="12"/>
+      <c r="K781" s="12"/>
+      <c r="L781" s="12"/>
     </row>
     <row r="782" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="12"/>
@@ -15881,618 +14010,11 @@
       <c r="K937" s="12"/>
       <c r="L937" s="12"/>
     </row>
-    <row r="938" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="12"/>
-      <c r="B938" s="13"/>
-      <c r="C938" s="12"/>
-      <c r="D938" s="12"/>
-      <c r="E938" s="12"/>
-      <c r="F938" s="12"/>
-      <c r="G938" s="12"/>
-      <c r="H938" s="12"/>
-      <c r="I938" s="12"/>
-      <c r="J938" s="12"/>
-      <c r="K938" s="12"/>
-      <c r="L938" s="12"/>
-    </row>
-    <row r="939" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A939" s="12"/>
-      <c r="B939" s="13"/>
-      <c r="C939" s="12"/>
-      <c r="D939" s="12"/>
-      <c r="E939" s="12"/>
-      <c r="F939" s="12"/>
-      <c r="G939" s="12"/>
-      <c r="H939" s="12"/>
-      <c r="I939" s="12"/>
-      <c r="J939" s="12"/>
-      <c r="K939" s="12"/>
-      <c r="L939" s="12"/>
-    </row>
-    <row r="940" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="12"/>
-      <c r="B940" s="13"/>
-      <c r="C940" s="12"/>
-      <c r="D940" s="12"/>
-      <c r="E940" s="12"/>
-      <c r="F940" s="12"/>
-      <c r="G940" s="12"/>
-      <c r="H940" s="12"/>
-      <c r="I940" s="12"/>
-      <c r="J940" s="12"/>
-      <c r="K940" s="12"/>
-      <c r="L940" s="12"/>
-    </row>
-    <row r="941" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A941" s="12"/>
-      <c r="B941" s="13"/>
-      <c r="C941" s="12"/>
-      <c r="D941" s="12"/>
-      <c r="E941" s="12"/>
-      <c r="F941" s="12"/>
-      <c r="G941" s="12"/>
-      <c r="H941" s="12"/>
-      <c r="I941" s="12"/>
-      <c r="J941" s="12"/>
-      <c r="K941" s="12"/>
-      <c r="L941" s="12"/>
-    </row>
-    <row r="942" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A942" s="12"/>
-      <c r="B942" s="13"/>
-      <c r="C942" s="12"/>
-      <c r="D942" s="12"/>
-      <c r="E942" s="12"/>
-      <c r="F942" s="12"/>
-      <c r="G942" s="12"/>
-      <c r="H942" s="12"/>
-      <c r="I942" s="12"/>
-      <c r="J942" s="12"/>
-      <c r="K942" s="12"/>
-      <c r="L942" s="12"/>
-    </row>
-    <row r="943" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A943" s="12"/>
-      <c r="B943" s="13"/>
-      <c r="C943" s="12"/>
-      <c r="D943" s="12"/>
-      <c r="E943" s="12"/>
-      <c r="F943" s="12"/>
-      <c r="G943" s="12"/>
-      <c r="H943" s="12"/>
-      <c r="I943" s="12"/>
-      <c r="J943" s="12"/>
-      <c r="K943" s="12"/>
-      <c r="L943" s="12"/>
-    </row>
-    <row r="944" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A944" s="12"/>
-      <c r="B944" s="13"/>
-      <c r="C944" s="12"/>
-      <c r="D944" s="12"/>
-      <c r="E944" s="12"/>
-      <c r="F944" s="12"/>
-      <c r="G944" s="12"/>
-      <c r="H944" s="12"/>
-      <c r="I944" s="12"/>
-      <c r="J944" s="12"/>
-      <c r="K944" s="12"/>
-      <c r="L944" s="12"/>
-    </row>
-    <row r="945" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A945" s="12"/>
-      <c r="B945" s="13"/>
-      <c r="C945" s="12"/>
-      <c r="D945" s="12"/>
-      <c r="E945" s="12"/>
-      <c r="F945" s="12"/>
-      <c r="G945" s="12"/>
-      <c r="H945" s="12"/>
-      <c r="I945" s="12"/>
-      <c r="J945" s="12"/>
-      <c r="K945" s="12"/>
-      <c r="L945" s="12"/>
-    </row>
-    <row r="946" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A946" s="12"/>
-      <c r="B946" s="13"/>
-      <c r="C946" s="12"/>
-      <c r="D946" s="12"/>
-      <c r="E946" s="12"/>
-      <c r="F946" s="12"/>
-      <c r="G946" s="12"/>
-      <c r="H946" s="12"/>
-      <c r="I946" s="12"/>
-      <c r="J946" s="12"/>
-      <c r="K946" s="12"/>
-      <c r="L946" s="12"/>
-    </row>
-    <row r="947" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A947" s="12"/>
-      <c r="B947" s="13"/>
-      <c r="C947" s="12"/>
-      <c r="D947" s="12"/>
-      <c r="E947" s="12"/>
-      <c r="F947" s="12"/>
-      <c r="G947" s="12"/>
-      <c r="H947" s="12"/>
-      <c r="I947" s="12"/>
-      <c r="J947" s="12"/>
-      <c r="K947" s="12"/>
-      <c r="L947" s="12"/>
-    </row>
-    <row r="948" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A948" s="12"/>
-      <c r="B948" s="13"/>
-      <c r="C948" s="12"/>
-      <c r="D948" s="12"/>
-      <c r="E948" s="12"/>
-      <c r="F948" s="12"/>
-      <c r="G948" s="12"/>
-      <c r="H948" s="12"/>
-      <c r="I948" s="12"/>
-      <c r="J948" s="12"/>
-      <c r="K948" s="12"/>
-      <c r="L948" s="12"/>
-    </row>
-    <row r="949" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A949" s="12"/>
-      <c r="B949" s="13"/>
-      <c r="C949" s="12"/>
-      <c r="D949" s="12"/>
-      <c r="E949" s="12"/>
-      <c r="F949" s="12"/>
-      <c r="G949" s="12"/>
-      <c r="H949" s="12"/>
-      <c r="I949" s="12"/>
-      <c r="J949" s="12"/>
-      <c r="K949" s="12"/>
-      <c r="L949" s="12"/>
-    </row>
-    <row r="950" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A950" s="12"/>
-      <c r="B950" s="13"/>
-      <c r="C950" s="12"/>
-      <c r="D950" s="12"/>
-      <c r="E950" s="12"/>
-      <c r="F950" s="12"/>
-      <c r="G950" s="12"/>
-      <c r="H950" s="12"/>
-      <c r="I950" s="12"/>
-      <c r="J950" s="12"/>
-      <c r="K950" s="12"/>
-      <c r="L950" s="12"/>
-    </row>
-    <row r="951" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A951" s="12"/>
-      <c r="B951" s="13"/>
-      <c r="C951" s="12"/>
-      <c r="D951" s="12"/>
-      <c r="E951" s="12"/>
-      <c r="F951" s="12"/>
-      <c r="G951" s="12"/>
-      <c r="H951" s="12"/>
-      <c r="I951" s="12"/>
-      <c r="J951" s="12"/>
-      <c r="K951" s="12"/>
-      <c r="L951" s="12"/>
-    </row>
-    <row r="952" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A952" s="12"/>
-      <c r="B952" s="13"/>
-      <c r="C952" s="12"/>
-      <c r="D952" s="12"/>
-      <c r="E952" s="12"/>
-      <c r="F952" s="12"/>
-      <c r="G952" s="12"/>
-      <c r="H952" s="12"/>
-      <c r="I952" s="12"/>
-      <c r="J952" s="12"/>
-      <c r="K952" s="12"/>
-      <c r="L952" s="12"/>
-    </row>
-    <row r="953" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A953" s="12"/>
-      <c r="B953" s="13"/>
-      <c r="C953" s="12"/>
-      <c r="D953" s="12"/>
-      <c r="E953" s="12"/>
-      <c r="F953" s="12"/>
-      <c r="G953" s="12"/>
-      <c r="H953" s="12"/>
-      <c r="I953" s="12"/>
-      <c r="J953" s="12"/>
-      <c r="K953" s="12"/>
-      <c r="L953" s="12"/>
-    </row>
-    <row r="954" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A954" s="12"/>
-      <c r="B954" s="13"/>
-      <c r="C954" s="12"/>
-      <c r="D954" s="12"/>
-      <c r="E954" s="12"/>
-      <c r="F954" s="12"/>
-      <c r="G954" s="12"/>
-      <c r="H954" s="12"/>
-      <c r="I954" s="12"/>
-      <c r="J954" s="12"/>
-      <c r="K954" s="12"/>
-      <c r="L954" s="12"/>
-    </row>
-    <row r="955" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A955" s="12"/>
-      <c r="B955" s="13"/>
-      <c r="C955" s="12"/>
-      <c r="D955" s="12"/>
-      <c r="E955" s="12"/>
-      <c r="F955" s="12"/>
-      <c r="G955" s="12"/>
-      <c r="H955" s="12"/>
-      <c r="I955" s="12"/>
-      <c r="J955" s="12"/>
-      <c r="K955" s="12"/>
-      <c r="L955" s="12"/>
-    </row>
-    <row r="956" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A956" s="12"/>
-      <c r="B956" s="13"/>
-      <c r="C956" s="12"/>
-      <c r="D956" s="12"/>
-      <c r="E956" s="12"/>
-      <c r="F956" s="12"/>
-      <c r="G956" s="12"/>
-      <c r="H956" s="12"/>
-      <c r="I956" s="12"/>
-      <c r="J956" s="12"/>
-      <c r="K956" s="12"/>
-      <c r="L956" s="12"/>
-    </row>
-    <row r="957" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="12"/>
-      <c r="B957" s="13"/>
-      <c r="C957" s="12"/>
-      <c r="D957" s="12"/>
-      <c r="E957" s="12"/>
-      <c r="F957" s="12"/>
-      <c r="G957" s="12"/>
-      <c r="H957" s="12"/>
-      <c r="I957" s="12"/>
-      <c r="J957" s="12"/>
-      <c r="K957" s="12"/>
-      <c r="L957" s="12"/>
-    </row>
-    <row r="958" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A958" s="12"/>
-      <c r="B958" s="13"/>
-      <c r="C958" s="12"/>
-      <c r="D958" s="12"/>
-      <c r="E958" s="12"/>
-      <c r="F958" s="12"/>
-      <c r="G958" s="12"/>
-      <c r="H958" s="12"/>
-      <c r="I958" s="12"/>
-      <c r="J958" s="12"/>
-      <c r="K958" s="12"/>
-      <c r="L958" s="12"/>
-    </row>
-    <row r="959" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A959" s="12"/>
-      <c r="B959" s="13"/>
-      <c r="C959" s="12"/>
-      <c r="D959" s="12"/>
-      <c r="E959" s="12"/>
-      <c r="F959" s="12"/>
-      <c r="G959" s="12"/>
-      <c r="H959" s="12"/>
-      <c r="I959" s="12"/>
-      <c r="J959" s="12"/>
-      <c r="K959" s="12"/>
-      <c r="L959" s="12"/>
-    </row>
-    <row r="960" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A960" s="12"/>
-      <c r="B960" s="13"/>
-      <c r="C960" s="12"/>
-      <c r="D960" s="12"/>
-      <c r="E960" s="12"/>
-      <c r="F960" s="12"/>
-      <c r="G960" s="12"/>
-      <c r="H960" s="12"/>
-      <c r="I960" s="12"/>
-      <c r="J960" s="12"/>
-      <c r="K960" s="12"/>
-      <c r="L960" s="12"/>
-    </row>
-    <row r="961" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A961" s="12"/>
-      <c r="B961" s="13"/>
-      <c r="C961" s="12"/>
-      <c r="D961" s="12"/>
-      <c r="E961" s="12"/>
-      <c r="F961" s="12"/>
-      <c r="G961" s="12"/>
-      <c r="H961" s="12"/>
-      <c r="I961" s="12"/>
-      <c r="J961" s="12"/>
-      <c r="K961" s="12"/>
-      <c r="L961" s="12"/>
-    </row>
-    <row r="962" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A962" s="12"/>
-      <c r="B962" s="13"/>
-      <c r="C962" s="12"/>
-      <c r="D962" s="12"/>
-      <c r="E962" s="12"/>
-      <c r="F962" s="12"/>
-      <c r="G962" s="12"/>
-      <c r="H962" s="12"/>
-      <c r="I962" s="12"/>
-      <c r="J962" s="12"/>
-      <c r="K962" s="12"/>
-      <c r="L962" s="12"/>
-    </row>
-    <row r="963" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="12"/>
-      <c r="B963" s="13"/>
-      <c r="C963" s="12"/>
-      <c r="D963" s="12"/>
-      <c r="E963" s="12"/>
-      <c r="F963" s="12"/>
-      <c r="G963" s="12"/>
-      <c r="H963" s="12"/>
-      <c r="I963" s="12"/>
-      <c r="J963" s="12"/>
-      <c r="K963" s="12"/>
-      <c r="L963" s="12"/>
-    </row>
-    <row r="964" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="12"/>
-      <c r="B964" s="13"/>
-      <c r="C964" s="12"/>
-      <c r="D964" s="12"/>
-      <c r="E964" s="12"/>
-      <c r="F964" s="12"/>
-      <c r="G964" s="12"/>
-      <c r="H964" s="12"/>
-      <c r="I964" s="12"/>
-      <c r="J964" s="12"/>
-      <c r="K964" s="12"/>
-      <c r="L964" s="12"/>
-    </row>
-    <row r="965" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="12"/>
-      <c r="B965" s="13"/>
-      <c r="C965" s="12"/>
-      <c r="D965" s="12"/>
-      <c r="E965" s="12"/>
-      <c r="F965" s="12"/>
-      <c r="G965" s="12"/>
-      <c r="H965" s="12"/>
-      <c r="I965" s="12"/>
-      <c r="J965" s="12"/>
-      <c r="K965" s="12"/>
-      <c r="L965" s="12"/>
-    </row>
-    <row r="966" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="12"/>
-      <c r="B966" s="13"/>
-      <c r="C966" s="12"/>
-      <c r="D966" s="12"/>
-      <c r="E966" s="12"/>
-      <c r="F966" s="12"/>
-      <c r="G966" s="12"/>
-      <c r="H966" s="12"/>
-      <c r="I966" s="12"/>
-      <c r="J966" s="12"/>
-      <c r="K966" s="12"/>
-      <c r="L966" s="12"/>
-    </row>
-    <row r="967" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="12"/>
-      <c r="B967" s="13"/>
-      <c r="C967" s="12"/>
-      <c r="D967" s="12"/>
-      <c r="E967" s="12"/>
-      <c r="F967" s="12"/>
-      <c r="G967" s="12"/>
-      <c r="H967" s="12"/>
-      <c r="I967" s="12"/>
-      <c r="J967" s="12"/>
-      <c r="K967" s="12"/>
-      <c r="L967" s="12"/>
-    </row>
-    <row r="968" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A968" s="12"/>
-      <c r="B968" s="13"/>
-      <c r="C968" s="12"/>
-      <c r="D968" s="12"/>
-      <c r="E968" s="12"/>
-      <c r="F968" s="12"/>
-      <c r="G968" s="12"/>
-      <c r="H968" s="12"/>
-      <c r="I968" s="12"/>
-      <c r="J968" s="12"/>
-      <c r="K968" s="12"/>
-      <c r="L968" s="12"/>
-    </row>
-    <row r="969" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="12"/>
-      <c r="B969" s="13"/>
-      <c r="C969" s="12"/>
-      <c r="D969" s="12"/>
-      <c r="E969" s="12"/>
-      <c r="F969" s="12"/>
-      <c r="G969" s="12"/>
-      <c r="H969" s="12"/>
-      <c r="I969" s="12"/>
-      <c r="J969" s="12"/>
-      <c r="K969" s="12"/>
-      <c r="L969" s="12"/>
-    </row>
-    <row r="970" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A970" s="12"/>
-      <c r="B970" s="13"/>
-      <c r="C970" s="12"/>
-      <c r="D970" s="12"/>
-      <c r="E970" s="12"/>
-      <c r="F970" s="12"/>
-      <c r="G970" s="12"/>
-      <c r="H970" s="12"/>
-      <c r="I970" s="12"/>
-      <c r="J970" s="12"/>
-      <c r="K970" s="12"/>
-      <c r="L970" s="12"/>
-    </row>
-    <row r="971" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A971" s="12"/>
-      <c r="B971" s="13"/>
-      <c r="C971" s="12"/>
-      <c r="D971" s="12"/>
-      <c r="E971" s="12"/>
-      <c r="F971" s="12"/>
-      <c r="G971" s="12"/>
-      <c r="H971" s="12"/>
-      <c r="I971" s="12"/>
-      <c r="J971" s="12"/>
-      <c r="K971" s="12"/>
-      <c r="L971" s="12"/>
-    </row>
-    <row r="972" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A972" s="12"/>
-      <c r="B972" s="13"/>
-      <c r="C972" s="12"/>
-      <c r="D972" s="12"/>
-      <c r="E972" s="12"/>
-      <c r="F972" s="12"/>
-      <c r="G972" s="12"/>
-      <c r="H972" s="12"/>
-      <c r="I972" s="12"/>
-      <c r="J972" s="12"/>
-      <c r="K972" s="12"/>
-      <c r="L972" s="12"/>
-    </row>
-    <row r="973" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="12"/>
-      <c r="B973" s="13"/>
-      <c r="C973" s="12"/>
-      <c r="D973" s="12"/>
-      <c r="E973" s="12"/>
-      <c r="F973" s="12"/>
-      <c r="G973" s="12"/>
-      <c r="H973" s="12"/>
-      <c r="I973" s="12"/>
-      <c r="J973" s="12"/>
-      <c r="K973" s="12"/>
-      <c r="L973" s="12"/>
-    </row>
-    <row r="974" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A974" s="12"/>
-      <c r="B974" s="13"/>
-      <c r="C974" s="12"/>
-      <c r="D974" s="12"/>
-      <c r="E974" s="12"/>
-      <c r="F974" s="12"/>
-      <c r="G974" s="12"/>
-      <c r="H974" s="12"/>
-      <c r="I974" s="12"/>
-      <c r="J974" s="12"/>
-      <c r="K974" s="12"/>
-      <c r="L974" s="12"/>
-    </row>
-    <row r="975" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A975" s="12"/>
-      <c r="B975" s="13"/>
-      <c r="C975" s="12"/>
-      <c r="D975" s="12"/>
-      <c r="E975" s="12"/>
-      <c r="F975" s="12"/>
-      <c r="G975" s="12"/>
-      <c r="H975" s="12"/>
-      <c r="I975" s="12"/>
-      <c r="J975" s="12"/>
-      <c r="K975" s="12"/>
-      <c r="L975" s="12"/>
-    </row>
-    <row r="976" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A976" s="12"/>
-      <c r="B976" s="13"/>
-      <c r="C976" s="12"/>
-      <c r="D976" s="12"/>
-      <c r="E976" s="12"/>
-      <c r="F976" s="12"/>
-      <c r="G976" s="12"/>
-      <c r="H976" s="12"/>
-      <c r="I976" s="12"/>
-      <c r="J976" s="12"/>
-      <c r="K976" s="12"/>
-      <c r="L976" s="12"/>
-    </row>
-    <row r="977" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="12"/>
-      <c r="B977" s="13"/>
-      <c r="C977" s="12"/>
-      <c r="D977" s="12"/>
-      <c r="E977" s="12"/>
-      <c r="F977" s="12"/>
-      <c r="G977" s="12"/>
-      <c r="H977" s="12"/>
-      <c r="I977" s="12"/>
-      <c r="J977" s="12"/>
-      <c r="K977" s="12"/>
-      <c r="L977" s="12"/>
-    </row>
-    <row r="978" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="12"/>
-      <c r="B978" s="13"/>
-      <c r="C978" s="12"/>
-      <c r="D978" s="12"/>
-      <c r="E978" s="12"/>
-      <c r="F978" s="12"/>
-      <c r="G978" s="12"/>
-      <c r="H978" s="12"/>
-      <c r="I978" s="12"/>
-      <c r="J978" s="12"/>
-      <c r="K978" s="12"/>
-      <c r="L978" s="12"/>
-    </row>
-    <row r="979" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="12"/>
-      <c r="B979" s="13"/>
-      <c r="C979" s="12"/>
-      <c r="D979" s="12"/>
-      <c r="E979" s="12"/>
-      <c r="F979" s="12"/>
-      <c r="G979" s="12"/>
-      <c r="H979" s="12"/>
-      <c r="I979" s="12"/>
-      <c r="J979" s="12"/>
-      <c r="K979" s="12"/>
-      <c r="L979" s="12"/>
-    </row>
-    <row r="980" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A980" s="12"/>
-      <c r="B980" s="13"/>
-      <c r="C980" s="12"/>
-      <c r="D980" s="12"/>
-      <c r="E980" s="12"/>
-      <c r="F980" s="12"/>
-      <c r="G980" s="12"/>
-      <c r="H980" s="12"/>
-      <c r="I980" s="12"/>
-      <c r="J980" s="12"/>
-      <c r="K980" s="12"/>
-      <c r="L980" s="12"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H85" r:id="rId1"/>
-    <hyperlink ref="H86:H87" r:id="rId2" display="khainq224117@st.uel.edu.vn"/>
-    <hyperlink ref="H30" r:id="rId3"/>
-    <hyperlink ref="H31:H32" r:id="rId4" display="khainq224116@st.uel.edu.vn"/>
-    <hyperlink ref="H25" r:id="rId5"/>
-    <hyperlink ref="H17" r:id="rId6"/>
-    <hyperlink ref="H18:H19" r:id="rId7" display="trangttt2241155@st.uel.edu.vn"/>
-    <hyperlink ref="H16" r:id="rId8"/>
+    <hyperlink ref="H17" r:id="rId1"/>
+    <hyperlink ref="H18:H19" r:id="rId2" display="trangttt2241155@st.uel.edu.vn"/>
+    <hyperlink ref="H16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
